--- a/2020_docs/03_基本設計/基本設計書_機能設計_一覧.xlsx
+++ b/2020_docs/03_基本設計/基本設計書_機能設計_一覧.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\DEV_HI\apps\eclipse\workspaces_eclipse\account-book-2020-docs\03_基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masudakento\git\portfolio2023\2020_docs\03_基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB728D7F-4396-4CE3-AA9E-BA55C2DAFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503492E-40B7-473A-8EEB-8A6ECDE205D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="31036" windowHeight="18766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4206,7 +4206,7 @@
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" outlineLevelCol="1"/>
@@ -9985,7 +9985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71875" defaultRowHeight="19.899999999999999" outlineLevelCol="1"/>
   <cols>
